--- a/API.xlsx
+++ b/API.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cawtoz\Documents\Dev\Projects\ControlTravelApis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7AEF9-D1F4-4F8B-A323-39803AEAA368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidad" sheetId="1" r:id="rId1"/>
+    <sheet name="Categoria" sheetId="2" r:id="rId2"/>
+    <sheet name="Servicio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +26,197 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Parámetros</t>
+  </si>
+  <si>
+    <t>Respuesta</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>api/unidad/Listado</t>
+  </si>
+  <si>
+    <t>Obtener todas las unidades</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Listado de unidades</t>
+  </si>
+  <si>
+    <t>api/unidad/Consultar/{id}</t>
+  </si>
+  <si>
+    <t>Consultar una unidad</t>
+  </si>
+  <si>
+    <t>id (int)</t>
+  </si>
+  <si>
+    <t>Detalles de la unidad</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>api/unidad/Crear</t>
+  </si>
+  <si>
+    <t>Crear una nueva unidad</t>
+  </si>
+  <si>
+    <t>Unidad (objeto)</t>
+  </si>
+  <si>
+    <t>Mensaje de éxito</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>api/unidad/Eliminar/{id}</t>
+  </si>
+  <si>
+    <t>Eliminar una unidad</t>
+  </si>
+  <si>
+    <t>Mensaje de éxito o error</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>api/categoria/Listado</t>
+  </si>
+  <si>
+    <t>Obtener todas las categorías</t>
+  </si>
+  <si>
+    <t>Listado de categorías</t>
+  </si>
+  <si>
+    <t>api/categoria/ListadoPorUnidad/{unidadId}</t>
+  </si>
+  <si>
+    <t>Obtener las categorías de una unidad</t>
+  </si>
+  <si>
+    <t>unidadId (int)</t>
+  </si>
+  <si>
+    <t>Listado de categorías para la unidad</t>
+  </si>
+  <si>
+    <t>api/categoria/Consultar/{id}</t>
+  </si>
+  <si>
+    <t>Consultar una categoría</t>
+  </si>
+  <si>
+    <t>Detalles de la categoría</t>
+  </si>
+  <si>
+    <t>api/categoria/Crear</t>
+  </si>
+  <si>
+    <t>Crear una nueva categoría</t>
+  </si>
+  <si>
+    <t>Categoria (objeto)</t>
+  </si>
+  <si>
+    <t>api/categoria/Eliminar/{id}</t>
+  </si>
+  <si>
+    <t>Eliminar una categoría</t>
+  </si>
+  <si>
+    <t>api/servicio/Listado</t>
+  </si>
+  <si>
+    <t>Obtener todos los servicios</t>
+  </si>
+  <si>
+    <t>Listado de servicios</t>
+  </si>
+  <si>
+    <t>api/servicio/ListadoPorUnidad/{unidadId}</t>
+  </si>
+  <si>
+    <t>Obtener los servicios de una unidad</t>
+  </si>
+  <si>
+    <t>Listado de servicios para la unidad</t>
+  </si>
+  <si>
+    <t>api/servicio/ListadoPorCategoria/{categoriaId}</t>
+  </si>
+  <si>
+    <t>Obtener los servicios de una categoría</t>
+  </si>
+  <si>
+    <t>categoriaId (int)</t>
+  </si>
+  <si>
+    <t>Listado de servicios para la categoría</t>
+  </si>
+  <si>
+    <t>api/servicio/Consultar/{id}</t>
+  </si>
+  <si>
+    <t>Consultar un servicio</t>
+  </si>
+  <si>
+    <t>Detalles del servicio</t>
+  </si>
+  <si>
+    <t>api/servicio/Crear</t>
+  </si>
+  <si>
+    <t>Crear un nuevo servicio</t>
+  </si>
+  <si>
+    <t>Servicio (objeto)</t>
+  </si>
+  <si>
+    <t>api/servicio/Eliminar/{id}</t>
+  </si>
+  <si>
+    <t>Eliminar un servicio</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +240,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +549,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA56D7-EC61-4D81-A0D7-48C61ED82EE1}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF3902-924C-4944-9736-5294F97C29E1}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>